--- a/asset/Books-Stock-Data.xlsx
+++ b/asset/Books-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA54297-0B49-470A-9557-256CF84F1217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56922EFA-5549-4B3B-94F6-EE84E224A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59B1823B-361B-4F0C-B592-654DDA2BF9FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{59B1823B-361B-4F0C-B592-654DDA2BF9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="732">
   <si>
     <t>companyName</t>
   </si>
@@ -336,9 +336,6 @@
     <t>dedicated</t>
   </si>
   <si>
-    <t>maximum capacity</t>
-  </si>
-  <si>
     <t>storage_strategy_num</t>
   </si>
   <si>
@@ -2158,13 +2155,100 @@
   </si>
   <si>
     <t xml:space="preserve"> +44 20 7851 2400</t>
+  </si>
+  <si>
+    <t>william@go.com</t>
+  </si>
+  <si>
+    <t>emilly@go.com</t>
+  </si>
+  <si>
+    <t>james@go.com</t>
+  </si>
+  <si>
+    <t>olivia@go.com</t>
+  </si>
+  <si>
+    <t>noah@go.com</t>
+  </si>
+  <si>
+    <t>sophia@go.com</t>
+  </si>
+  <si>
+    <t>ethan@go.com</t>
+  </si>
+  <si>
+    <t>mia@go.com</t>
+  </si>
+  <si>
+    <t>liam@go.com</t>
+  </si>
+  <si>
+    <t>ava@go.com</t>
+  </si>
+  <si>
+    <t>jhon@go.com</t>
+  </si>
+  <si>
+    <t>mary@go.com</t>
+  </si>
+  <si>
+    <t>robert@go.com</t>
+  </si>
+  <si>
+    <t>patricia@go.com</t>
+  </si>
+  <si>
+    <t>michael@go.com</t>
+  </si>
+  <si>
+    <t>jenifer@go.com</t>
+  </si>
+  <si>
+    <t>davis@go.com</t>
+  </si>
+  <si>
+    <t>david@go.com</t>
+  </si>
+  <si>
+    <t>susan@go.com</t>
+  </si>
+  <si>
+    <t>irfan@go.com</t>
+  </si>
+  <si>
+    <t>siti@go.com</t>
+  </si>
+  <si>
+    <t>rizki@go.com</t>
+  </si>
+  <si>
+    <t>mohammed@go.com</t>
+  </si>
+  <si>
+    <t>andi@go.com</t>
+  </si>
+  <si>
+    <t>dian@go.com</t>
+  </si>
+  <si>
+    <t>fajar@go.com</t>
+  </si>
+  <si>
+    <t>nia@go.com</t>
+  </si>
+  <si>
+    <t>budi@go.com</t>
+  </si>
+  <si>
+    <t>putri@go.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2177,6 +2261,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2196,8 +2286,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2211,14 +2302,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7146,7 +7238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E54E15F-5351-4A49-85B6-05AC1330C810}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7247,22 +7339,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7282,13 +7374,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -7302,7 +7394,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>1010</v>
@@ -7322,7 +7414,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>1010</v>
@@ -7342,7 +7434,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>1010</v>
@@ -7362,7 +7454,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <v>1010</v>
@@ -7382,7 +7474,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>1010</v>
@@ -7402,7 +7494,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>1010</v>
@@ -7422,7 +7514,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>1010</v>
@@ -7442,7 +7534,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>1010</v>
@@ -7462,7 +7554,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10">
         <v>1010</v>
@@ -7482,7 +7574,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11">
         <v>1010</v>
@@ -7502,7 +7594,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12">
         <v>1010</v>
@@ -7522,7 +7614,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>1010</v>
@@ -7542,7 +7634,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>1010</v>
@@ -7562,7 +7654,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>1010</v>
@@ -7582,7 +7674,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16">
         <v>1010</v>
@@ -7602,7 +7694,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>1010</v>
@@ -7622,7 +7714,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18">
         <v>1010</v>
@@ -7642,7 +7734,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>1010</v>
@@ -7662,7 +7754,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20">
         <v>1010</v>
@@ -7682,7 +7774,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21">
         <v>1010</v>
@@ -7702,7 +7794,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22">
         <v>1010</v>
@@ -7722,7 +7814,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>1010</v>
@@ -7742,7 +7834,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24">
         <v>1020</v>
@@ -7762,7 +7854,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>1020</v>
@@ -7782,7 +7874,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26">
         <v>1020</v>
@@ -7802,7 +7894,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27">
         <v>1020</v>
@@ -7822,7 +7914,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28">
         <v>1020</v>
@@ -7842,7 +7934,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29">
         <v>1020</v>
@@ -7862,7 +7954,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30">
         <v>1020</v>
@@ -7882,7 +7974,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31">
         <v>1020</v>
@@ -7902,7 +7994,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32">
         <v>1020</v>
@@ -7922,7 +8014,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33">
         <v>1020</v>
@@ -7942,7 +8034,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34">
         <v>1020</v>
@@ -7962,7 +8054,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35">
         <v>1020</v>
@@ -7982,7 +8074,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36">
         <v>1020</v>
@@ -8002,7 +8094,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37">
         <v>1020</v>
@@ -8022,7 +8114,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38">
         <v>1020</v>
@@ -8042,7 +8134,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <v>1020</v>
@@ -8062,7 +8154,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <v>1020</v>
@@ -8082,7 +8174,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41">
         <v>1020</v>
@@ -8102,7 +8194,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42">
         <v>1020</v>
@@ -8122,7 +8214,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43">
         <v>1020</v>
@@ -8142,7 +8234,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44">
         <v>1020</v>
@@ -8162,7 +8254,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <v>1020</v>
@@ -8182,7 +8274,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>1020</v>
@@ -8202,7 +8294,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47">
         <v>1020</v>
@@ -8222,7 +8314,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>1020</v>
@@ -8242,7 +8334,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49">
         <v>1020</v>
@@ -8262,7 +8354,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50">
         <v>1020</v>
@@ -8282,7 +8374,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>1020</v>
@@ -8302,7 +8394,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52">
         <v>1020</v>
@@ -8322,7 +8414,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53">
         <v>1020</v>
@@ -8342,7 +8434,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54">
         <v>1020</v>
@@ -8362,7 +8454,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55">
         <v>1020</v>
@@ -8382,7 +8474,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B56">
         <v>1020</v>
@@ -8402,7 +8494,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B57">
         <v>1030</v>
@@ -8422,7 +8514,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B58">
         <v>1030</v>
@@ -8442,7 +8534,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59">
         <v>1030</v>
@@ -8462,7 +8554,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B60">
         <v>1030</v>
@@ -8482,7 +8574,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61">
         <v>1030</v>
@@ -8502,7 +8594,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62">
         <v>1030</v>
@@ -8522,7 +8614,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63">
         <v>1030</v>
@@ -8542,7 +8634,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B64">
         <v>1030</v>
@@ -8562,7 +8654,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65">
         <v>1030</v>
@@ -8582,7 +8674,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B66">
         <v>1030</v>
@@ -8602,7 +8694,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B67">
         <v>1030</v>
@@ -8622,7 +8714,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B68">
         <v>1030</v>
@@ -8642,7 +8734,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69">
         <v>1040</v>
@@ -8662,7 +8754,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70">
         <v>1040</v>
@@ -8682,7 +8774,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B71">
         <v>1040</v>
@@ -8702,7 +8794,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72">
         <v>1040</v>
@@ -8722,7 +8814,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B73">
         <v>1040</v>
@@ -8742,7 +8834,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74">
         <v>1040</v>
@@ -8762,7 +8854,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75">
         <v>1040</v>
@@ -8782,7 +8874,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76">
         <v>1040</v>
@@ -8802,7 +8894,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77">
         <v>1040</v>
@@ -8822,7 +8914,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78">
         <v>1040</v>
@@ -8842,7 +8934,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79">
         <v>1040</v>
@@ -8862,7 +8954,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B80">
         <v>1050</v>
@@ -8882,7 +8974,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81">
         <v>1050</v>
@@ -8902,7 +8994,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82">
         <v>1050</v>
@@ -8922,7 +9014,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83">
         <v>1050</v>
@@ -8942,7 +9034,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84">
         <v>1050</v>
@@ -8962,7 +9054,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85">
         <v>1050</v>
@@ -8982,7 +9074,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86">
         <v>1050</v>
@@ -9002,7 +9094,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B87">
         <v>1050</v>
@@ -9022,7 +9114,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88">
         <v>1050</v>
@@ -9042,7 +9134,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B89">
         <v>1050</v>
@@ -9062,7 +9154,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90">
         <v>1050</v>
@@ -9082,7 +9174,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91">
         <v>1050</v>
@@ -9102,7 +9194,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92">
         <v>1050</v>
@@ -9122,7 +9214,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>1050</v>
@@ -9142,7 +9234,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B94">
         <v>1050</v>
@@ -9162,7 +9254,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B95">
         <v>1050</v>
@@ -9182,7 +9274,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B96">
         <v>1050</v>
@@ -9202,7 +9294,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B97">
         <v>1050</v>
@@ -9222,7 +9314,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98">
         <v>1050</v>
@@ -9242,7 +9334,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B99">
         <v>1050</v>
@@ -9262,7 +9354,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100">
         <v>1050</v>
@@ -9282,7 +9374,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101">
         <v>1050</v>
@@ -9302,7 +9394,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B102">
         <v>1060</v>
@@ -9322,7 +9414,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B103">
         <v>1060</v>
@@ -9342,7 +9434,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104">
         <v>1060</v>
@@ -9362,7 +9454,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105">
         <v>1060</v>
@@ -9382,7 +9474,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106">
         <v>1060</v>
@@ -9402,7 +9494,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107">
         <v>1060</v>
@@ -9422,7 +9514,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108">
         <v>1060</v>
@@ -9442,7 +9534,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109">
         <v>1060</v>
@@ -9462,7 +9554,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110">
         <v>1060</v>
@@ -9482,7 +9574,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B111">
         <v>1060</v>
@@ -9502,7 +9594,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112">
         <v>1060</v>
@@ -9522,7 +9614,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>1060</v>
@@ -9542,7 +9634,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>1060</v>
@@ -9562,7 +9654,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115">
         <v>1060</v>
@@ -9582,7 +9674,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116">
         <v>1060</v>
@@ -9602,7 +9694,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B117">
         <v>1060</v>
@@ -9622,7 +9714,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118">
         <v>1060</v>
@@ -9642,7 +9734,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119">
         <v>1060</v>
@@ -9662,7 +9754,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B120">
         <v>1060</v>
@@ -9682,7 +9774,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B121">
         <v>1060</v>
@@ -9702,7 +9794,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122">
         <v>1060</v>
@@ -9722,7 +9814,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123">
         <v>1060</v>
@@ -9742,7 +9834,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124">
         <v>1070</v>
@@ -9762,7 +9854,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <v>1070</v>
@@ -9782,7 +9874,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126">
         <v>1070</v>
@@ -9802,7 +9894,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>1070</v>
@@ -9822,7 +9914,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128">
         <v>1070</v>
@@ -9842,7 +9934,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>1070</v>
@@ -9862,7 +9954,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130">
         <v>1070</v>
@@ -9882,7 +9974,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>1070</v>
@@ -9902,7 +9994,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>1070</v>
@@ -9922,7 +10014,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B133">
         <v>1070</v>
@@ -9942,7 +10034,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B134">
         <v>1070</v>
@@ -9962,7 +10054,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B135">
         <v>1070</v>
@@ -9982,7 +10074,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B136">
         <v>1070</v>
@@ -10002,7 +10094,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B137">
         <v>1070</v>
@@ -10022,7 +10114,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138">
         <v>1070</v>
@@ -10042,7 +10134,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B139">
         <v>1070</v>
@@ -10062,7 +10154,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B140">
         <v>1070</v>
@@ -10082,7 +10174,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B141">
         <v>1070</v>
@@ -10102,7 +10194,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B142">
         <v>1070</v>
@@ -10122,7 +10214,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B143">
         <v>1070</v>
@@ -10142,7 +10234,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B144">
         <v>1070</v>
@@ -10162,7 +10254,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145">
         <v>1070</v>
@@ -10182,7 +10274,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>1080</v>
@@ -10202,7 +10294,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B147">
         <v>1080</v>
@@ -10222,7 +10314,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B148">
         <v>1080</v>
@@ -10242,7 +10334,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B149">
         <v>1080</v>
@@ -10262,7 +10354,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B150">
         <v>1080</v>
@@ -10282,7 +10374,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B151">
         <v>1080</v>
@@ -10302,7 +10394,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B152">
         <v>1080</v>
@@ -10322,7 +10414,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B153">
         <v>1080</v>
@@ -10342,7 +10434,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B154">
         <v>1080</v>
@@ -10362,7 +10454,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B155">
         <v>1080</v>
@@ -10382,7 +10474,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B156">
         <v>1080</v>
@@ -10402,7 +10494,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157">
         <v>1090</v>
@@ -10422,7 +10514,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B158">
         <v>1090</v>
@@ -10442,7 +10534,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B159">
         <v>1090</v>
@@ -10462,7 +10554,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B160">
         <v>1090</v>
@@ -10482,7 +10574,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B161">
         <v>1090</v>
@@ -10502,7 +10594,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162">
         <v>1090</v>
@@ -10522,7 +10614,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B163">
         <v>1090</v>
@@ -10542,7 +10634,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B164">
         <v>1090</v>
@@ -10562,7 +10654,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165">
         <v>1090</v>
@@ -10582,7 +10674,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B166">
         <v>1090</v>
@@ -10602,7 +10694,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B167">
         <v>1090</v>
@@ -10622,7 +10714,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B168">
         <v>1090</v>
@@ -10642,7 +10734,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B169">
         <v>1090</v>
@@ -10662,7 +10754,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170">
         <v>1090</v>
@@ -10682,7 +10774,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B171">
         <v>1090</v>
@@ -10702,7 +10794,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B172">
         <v>1090</v>
@@ -10722,7 +10814,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B173">
         <v>1090</v>
@@ -10742,7 +10834,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174">
         <v>1090</v>
@@ -10762,7 +10854,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B175">
         <v>1090</v>
@@ -10782,7 +10874,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B176">
         <v>1090</v>
@@ -10802,7 +10894,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B177">
         <v>1090</v>
@@ -10822,7 +10914,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B178">
         <v>1090</v>
@@ -10859,39 +10951,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>297</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>298</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>299</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>300</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>301</v>
-      </c>
-      <c r="I1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -10900,27 +10992,27 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
         <v>305</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>306</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>307</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>308</v>
-      </c>
-      <c r="I2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -10929,27 +11021,27 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" t="s">
         <v>688</v>
-      </c>
-      <c r="H3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -10958,27 +11050,27 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" t="s">
         <v>691</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>692</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>693</v>
       </c>
-      <c r="H4" t="s">
-        <v>694</v>
-      </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -10987,27 +11079,27 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G5" t="s">
         <v>696</v>
       </c>
-      <c r="F5" t="s">
-        <v>696</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>695</v>
+      </c>
+      <c r="I5" t="s">
         <v>697</v>
-      </c>
-      <c r="H5" t="s">
-        <v>696</v>
-      </c>
-      <c r="I5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -11016,19 +11108,19 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G6" t="s">
         <v>700</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>701</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>702</v>
-      </c>
-      <c r="I6" t="s">
-        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -11053,242 +11145,242 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
         <v>314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" t="s">
         <v>316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
         <v>319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -11303,7 +11395,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11313,30 +11405,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -11348,10 +11440,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="4">
         <v>6</v>
@@ -11359,7 +11451,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -11371,10 +11463,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4">
         <v>9</v>
@@ -11382,7 +11474,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -11394,10 +11486,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -11405,7 +11497,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -11417,10 +11509,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4">
         <v>9</v>
@@ -11428,7 +11520,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -11440,10 +11532,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
@@ -11451,7 +11543,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -11463,10 +11555,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -11474,7 +11566,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -11486,10 +11578,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
@@ -11497,7 +11589,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -11509,10 +11601,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -11520,7 +11612,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -11532,10 +11624,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -11543,7 +11635,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -11555,10 +11647,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -11566,7 +11658,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -11578,10 +11670,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -11589,7 +11681,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -11601,10 +11693,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="4">
         <v>7</v>
@@ -11612,7 +11704,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -11624,10 +11716,10 @@
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="4">
         <v>10</v>
@@ -11635,7 +11727,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -11647,10 +11739,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="4">
         <v>10</v>
@@ -11658,7 +11750,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -11670,10 +11762,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="4">
         <v>9</v>
@@ -11681,7 +11773,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -11693,10 +11785,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4">
         <v>8</v>
@@ -11704,7 +11796,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -11716,10 +11808,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -11727,7 +11819,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -11739,10 +11831,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -11750,7 +11842,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
@@ -11762,10 +11854,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="4">
         <v>4</v>
@@ -11773,7 +11865,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -11785,10 +11877,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4">
         <v>6</v>
@@ -11796,7 +11888,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
@@ -11808,10 +11900,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4">
         <v>5</v>
@@ -11819,7 +11911,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -11831,10 +11923,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4">
         <v>9</v>
@@ -11842,7 +11934,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -11854,10 +11946,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -11865,7 +11957,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -11877,10 +11969,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -11888,7 +11980,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -11900,10 +11992,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="4">
         <v>7</v>
@@ -11911,7 +12003,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -11923,10 +12015,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
@@ -11934,22 +12026,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="4">
         <v>4</v>
@@ -11957,7 +12049,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -11969,10 +12061,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="4">
         <v>5</v>
@@ -11980,7 +12072,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
@@ -11992,10 +12084,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
@@ -12003,7 +12095,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31" s="4">
         <v>3</v>
@@ -12015,10 +12107,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -12026,7 +12118,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
@@ -12038,10 +12130,10 @@
         <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -12049,7 +12141,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
@@ -12061,10 +12153,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="4">
         <v>6</v>
@@ -12072,7 +12164,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="4">
         <v>6</v>
@@ -12084,10 +12176,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="4">
         <v>10</v>
@@ -12095,7 +12187,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="4">
         <v>7</v>
@@ -12107,10 +12199,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="4">
         <v>2</v>
@@ -12118,7 +12210,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -12130,10 +12222,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -12141,7 +12233,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="4">
         <v>2</v>
@@ -12153,10 +12245,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="4">
         <v>6</v>
@@ -12164,7 +12256,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" s="4">
         <v>3</v>
@@ -12176,10 +12268,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="4">
         <v>3</v>
@@ -12187,7 +12279,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="4">
         <v>4</v>
@@ -12199,10 +12291,10 @@
         <v>14</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="4">
         <v>10</v>
@@ -12210,7 +12302,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="4">
         <v>5</v>
@@ -12222,10 +12314,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -12233,7 +12325,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -12245,10 +12337,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="4">
         <v>4</v>
@@ -12256,7 +12348,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -12268,10 +12360,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -12279,7 +12371,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -12291,10 +12383,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G43" s="4">
         <v>2</v>
@@ -12302,7 +12394,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -12314,10 +12406,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="4">
         <v>6</v>
@@ -12325,7 +12417,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -12337,10 +12429,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="4">
         <v>7</v>
@@ -12348,7 +12440,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
@@ -12360,10 +12452,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="4">
         <v>10</v>
@@ -12371,7 +12463,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
@@ -12383,10 +12475,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="4">
         <v>10</v>
@@ -12394,7 +12486,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" s="4">
         <v>4</v>
@@ -12406,10 +12498,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="4">
         <v>4</v>
@@ -12417,7 +12509,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -12429,10 +12521,10 @@
         <v>14</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="4">
         <v>7</v>
@@ -12440,7 +12532,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -12452,10 +12544,10 @@
         <v>14</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="4">
         <v>7</v>
@@ -12463,7 +12555,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
@@ -12475,10 +12567,10 @@
         <v>14</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G51" s="4">
         <v>9</v>
@@ -12486,7 +12578,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -12498,10 +12590,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="4">
         <v>10</v>
@@ -12509,7 +12601,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
@@ -12521,10 +12613,10 @@
         <v>14</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="4">
         <v>9</v>
@@ -12532,7 +12624,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -12544,10 +12636,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="4">
         <v>6</v>
@@ -12555,7 +12647,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B55" s="4">
         <v>4</v>
@@ -12567,10 +12659,10 @@
         <v>14</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
@@ -12578,7 +12670,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B56" s="4">
         <v>5</v>
@@ -12590,10 +12682,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="4">
         <v>8</v>
@@ -12601,7 +12693,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -12613,10 +12705,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G57" s="4">
         <v>7</v>
@@ -12624,7 +12716,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
@@ -12636,10 +12728,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="4">
         <v>5</v>
@@ -12647,7 +12739,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
@@ -12659,10 +12751,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="4">
         <v>5</v>
@@ -12670,7 +12762,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="4">
         <v>4</v>
@@ -12682,10 +12774,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G60" s="4">
         <v>5</v>
@@ -12693,7 +12785,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
@@ -12705,10 +12797,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="4">
         <v>4</v>
@@ -12716,7 +12808,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62" s="4">
         <v>6</v>
@@ -12728,10 +12820,10 @@
         <v>14</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G62" s="4">
         <v>8</v>
@@ -12739,7 +12831,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B63" s="4">
         <v>7</v>
@@ -12751,10 +12843,10 @@
         <v>14</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G63" s="4">
         <v>5</v>
@@ -12762,7 +12854,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B64" s="4">
         <v>8</v>
@@ -12774,10 +12866,10 @@
         <v>14</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G64" s="4">
         <v>3</v>
@@ -12785,7 +12877,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B65" s="4">
         <v>9</v>
@@ -12797,10 +12889,10 @@
         <v>14</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G65" s="4">
         <v>6</v>
@@ -12808,7 +12900,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" s="4">
         <v>10</v>
@@ -12820,10 +12912,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="4">
         <v>10</v>
@@ -12831,7 +12923,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -12843,10 +12935,10 @@
         <v>14</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" s="4">
         <v>5</v>
@@ -12854,22 +12946,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B68" s="4">
         <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" s="4">
         <v>9</v>
@@ -12877,22 +12969,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69" s="4">
         <v>5</v>
@@ -12900,22 +12992,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G70" s="4">
         <v>3</v>
@@ -12923,22 +13015,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="4">
         <v>10</v>
@@ -12946,22 +13038,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="4">
         <v>5</v>
@@ -12969,22 +13061,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="4">
         <v>8</v>
@@ -12992,22 +13084,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="4">
         <v>10</v>
@@ -13015,22 +13107,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B75" s="4">
         <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="4">
         <v>3</v>
@@ -13038,22 +13130,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="4">
         <v>5</v>
@@ -13061,22 +13153,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" s="4">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="4">
         <v>2</v>
@@ -13084,22 +13176,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B78" s="4">
         <v>5</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G78" s="4">
         <v>10</v>
@@ -13107,22 +13199,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B79" s="4">
         <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="4">
         <v>6</v>
@@ -13130,22 +13222,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B80" s="4">
         <v>7</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="4">
         <v>2</v>
@@ -13162,8 +13254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFB9F53-B3BC-4809-B6E2-EE34BF5E9673}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B65536"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K2:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13173,1090 +13265,1123 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
+      <c r="K2" s="6" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>14</v>
+      <c r="K3" s="6" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
+      <c r="K4" s="6" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>14</v>
+      <c r="K5" s="6" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>14</v>
+      <c r="K6" s="6" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>14</v>
+      <c r="K7" s="6" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>14</v>
+      <c r="K8" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>14</v>
+      <c r="K9" s="6" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>14</v>
+      <c r="K10" s="6" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>14</v>
+      <c r="K11" s="6" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>14</v>
+      <c r="K12" s="6" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>14</v>
+      <c r="K13" s="6" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>14</v>
+      <c r="K14" s="6" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>14</v>
+      <c r="K15" s="6" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>14</v>
+      <c r="K16" s="6" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>14</v>
+      <c r="K17" s="6" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>14</v>
+      <c r="K18" s="6" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>14</v>
+      <c r="K19" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>14</v>
+      <c r="K20" s="6" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>14</v>
+      <c r="K21" s="6" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>14</v>
+      <c r="K22" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>14</v>
+      <c r="K23" s="6" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>14</v>
+      <c r="K24" s="6" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>14</v>
+      <c r="K25" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>14</v>
+      <c r="K26" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>14</v>
+      <c r="K27" s="6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>14</v>
+      <c r="K28" s="6" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>14</v>
+      <c r="K29" s="6" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>14</v>
+      <c r="K30" s="6" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>14</v>
+      <c r="K31" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{09EC157A-2D25-47BD-ADCD-4B0CFF09B217}"/>
+    <hyperlink ref="K3:K31" r:id="rId2" display="william@go.com" xr:uid="{8ECA9790-1210-48FA-BE1C-50E687FA9A8F}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{1D62CA52-3CA9-43AB-BFF4-D4F0400781D1}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{8BFE1B51-C12C-46BA-89D2-BCA111FFE684}"/>
+    <hyperlink ref="K5" r:id="rId5" xr:uid="{EC006CA3-1768-4B8B-B870-7F4CC95ED299}"/>
+    <hyperlink ref="K6" r:id="rId6" xr:uid="{107988B1-90C7-4087-BAE4-CEBCE9FA1763}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{B541059B-C9FD-4552-8814-4051F1030616}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{43D37D28-3BAC-41F5-90B5-D24F39272FD7}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{D302ECD6-1B22-433A-ABF4-D24D6E0C1D99}"/>
+    <hyperlink ref="K10" r:id="rId10" xr:uid="{42352713-07D4-40D8-AED0-8AB7F8C9C4D1}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{C7FA98A3-9FB0-4CA4-B2A5-88C60B6B0FC4}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{6D0B7327-BDED-4AD6-81CC-9B44D79ED161}"/>
+    <hyperlink ref="K13" r:id="rId13" xr:uid="{C83F8C1D-6774-4A55-A8C5-9461E5A38E8D}"/>
+    <hyperlink ref="K14" r:id="rId14" xr:uid="{24C5E38C-700E-47D1-A2EE-4F1366894123}"/>
+    <hyperlink ref="K15" r:id="rId15" xr:uid="{67D71E39-A01C-4712-B6FC-021B6B9D96BA}"/>
+    <hyperlink ref="K16" r:id="rId16" xr:uid="{98C441A6-64F1-4772-B2DF-2A808536812C}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{1A76A8EF-F27C-4DB1-98BB-A9D7DC9A633E}"/>
+    <hyperlink ref="K18" r:id="rId18" xr:uid="{93B15504-4673-4BF2-9F29-0BBEEE134EF6}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{09829056-15C5-4670-B5BF-C8588C4CD08D}"/>
+    <hyperlink ref="K20" r:id="rId20" xr:uid="{32DE0C57-BE91-4649-B55F-62357DA1636B}"/>
+    <hyperlink ref="K21" r:id="rId21" xr:uid="{0C7012E4-AA60-44B9-BD26-A95C7A45A97C}"/>
+    <hyperlink ref="K24" r:id="rId22" xr:uid="{89277D9A-F828-4D88-9F89-ECA089FF4C84}"/>
+    <hyperlink ref="K25" r:id="rId23" xr:uid="{5228DD26-6B04-43A2-94C7-C2DE9194A215}"/>
+    <hyperlink ref="K26" r:id="rId24" xr:uid="{15BB360A-1FF0-4CF2-8D47-8870ABF73FE1}"/>
+    <hyperlink ref="K27" r:id="rId25" xr:uid="{B52044EA-2F65-42E8-B526-457CD650B77A}"/>
+    <hyperlink ref="K28" r:id="rId26" xr:uid="{4822A5C6-E23B-408B-BBE9-EDD1B2B70249}"/>
+    <hyperlink ref="K29" r:id="rId27" xr:uid="{5ECD27C6-1733-4006-AC50-85966B33BCB7}"/>
+    <hyperlink ref="K30" r:id="rId28" xr:uid="{B0CA5504-0E45-429A-8A14-77EF7F7F7B61}"/>
+    <hyperlink ref="K31" r:id="rId29" xr:uid="{253DC281-F0BF-4925-8383-4711B74D0692}"/>
+    <hyperlink ref="K22" r:id="rId30" xr:uid="{54F10962-E027-4368-92C4-7CF5D29C5195}"/>
+    <hyperlink ref="K23" r:id="rId31" xr:uid="{198D4E3F-9643-4587-A18C-1D5C9CE56378}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -14280,21 +14405,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -14308,7 +14433,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -14322,7 +14447,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -14336,7 +14461,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -14350,7 +14475,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -14364,7 +14489,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -14378,7 +14503,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -14392,7 +14517,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -14406,7 +14531,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -14420,7 +14545,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -14434,7 +14559,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
@@ -14448,7 +14573,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
@@ -14462,7 +14587,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -14476,7 +14601,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -14490,7 +14615,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -14504,7 +14629,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -14518,7 +14643,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -14532,7 +14657,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -14546,7 +14671,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -14560,7 +14685,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -14574,7 +14699,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -14588,7 +14713,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -14602,7 +14727,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -14616,13 +14741,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -14630,7 +14755,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -14644,7 +14769,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
@@ -14658,7 +14783,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -14672,7 +14797,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -14686,7 +14811,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B30" s="4">
         <v>5</v>
@@ -14700,7 +14825,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B31" s="4">
         <v>6</v>
@@ -14714,7 +14839,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B32" s="4">
         <v>7</v>
@@ -14728,7 +14853,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -14742,7 +14867,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B34" s="4">
         <v>2</v>
@@ -14756,7 +14881,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B35" s="4">
         <v>3</v>
@@ -14770,7 +14895,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B36" s="4">
         <v>4</v>
@@ -14784,7 +14909,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B37" s="4">
         <v>5</v>
@@ -14798,7 +14923,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -14812,7 +14937,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -14826,7 +14951,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -14840,7 +14965,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -14854,7 +14979,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -14868,7 +14993,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
@@ -14882,7 +15007,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B44" s="4">
         <v>3</v>
@@ -14896,7 +15021,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B45" s="4">
         <v>4</v>
@@ -14910,7 +15035,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -14924,7 +15049,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B47" s="4">
         <v>2</v>
@@ -14938,7 +15063,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B48" s="4">
         <v>3</v>
@@ -14952,7 +15077,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -14966,7 +15091,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -14980,7 +15105,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
@@ -14994,7 +15119,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B52" s="4">
         <v>4</v>
@@ -15008,7 +15133,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B53" s="4">
         <v>5</v>
@@ -15022,7 +15147,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -15036,7 +15161,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
@@ -15050,7 +15175,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
@@ -15064,7 +15189,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="4">
         <v>4</v>
@@ -15078,7 +15203,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="4">
         <v>5</v>
@@ -15092,7 +15217,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B59" s="4">
         <v>6</v>
@@ -15106,7 +15231,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B60" s="4">
         <v>7</v>
@@ -15120,7 +15245,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B61" s="4">
         <v>8</v>
@@ -15134,7 +15259,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B62" s="4">
         <v>9</v>
@@ -15148,7 +15273,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B63" s="4">
         <v>10</v>
@@ -15162,7 +15287,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -15176,13 +15301,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B65" s="4">
         <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D65" s="4">
         <v>9</v>
@@ -15190,13 +15315,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -15204,13 +15329,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D67" s="4">
         <v>3</v>
@@ -15218,13 +15343,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D68" s="4">
         <v>10</v>
@@ -15232,13 +15357,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D69" s="4">
         <v>5</v>
@@ -15246,13 +15371,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D70" s="4">
         <v>8</v>
@@ -15260,13 +15385,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" s="4">
         <v>10</v>
@@ -15274,13 +15399,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B72" s="4">
         <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
@@ -15288,13 +15413,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D73" s="4">
         <v>5</v>
@@ -15302,13 +15427,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B74" s="4">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -15316,13 +15441,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B75" s="4">
         <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D75" s="4">
         <v>10</v>
@@ -15330,13 +15455,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B76" s="4">
         <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D76" s="4">
         <v>6</v>
@@ -15344,13 +15469,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D77" s="4">
         <v>2</v>
@@ -15358,7 +15483,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -15372,7 +15497,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B79" s="4">
         <v>2</v>
@@ -15386,7 +15511,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B80" s="4">
         <v>3</v>
@@ -15400,7 +15525,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B81" s="4">
         <v>4</v>
@@ -15414,7 +15539,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B82" s="4">
         <v>5</v>
@@ -15457,66 +15582,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -15530,8 +15655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881FF8FD-A102-4B67-8E88-D2F2CA9D310C}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A59" zoomScale="98" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15547,10 +15672,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -15559,7 +15684,7 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -15594,7 +15719,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -15603,7 +15728,7 @@
         <v>1070</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -15635,7 +15760,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -15644,7 +15769,7 @@
         <v>1060</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -15676,7 +15801,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -15685,7 +15810,7 @@
         <v>1020</v>
       </c>
       <c r="E4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -15717,7 +15842,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -15726,7 +15851,7 @@
         <v>1020</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -15758,7 +15883,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -15767,7 +15892,7 @@
         <v>1070</v>
       </c>
       <c r="E6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -15799,7 +15924,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -15808,7 +15933,7 @@
         <v>1020</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -15840,7 +15965,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -15849,7 +15974,7 @@
         <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -15881,7 +16006,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -15890,7 +16015,7 @@
         <v>1080</v>
       </c>
       <c r="E9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -15922,7 +16047,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -15931,7 +16056,7 @@
         <v>1080</v>
       </c>
       <c r="E10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -15963,7 +16088,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -15972,7 +16097,7 @@
         <v>1070</v>
       </c>
       <c r="E11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -16004,7 +16129,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -16013,7 +16138,7 @@
         <v>1060</v>
       </c>
       <c r="E12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -16045,7 +16170,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -16054,7 +16179,7 @@
         <v>1070</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -16086,7 +16211,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -16095,7 +16220,7 @@
         <v>1050</v>
       </c>
       <c r="E14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -16127,7 +16252,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -16136,7 +16261,7 @@
         <v>1020</v>
       </c>
       <c r="E15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -16168,7 +16293,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -16177,7 +16302,7 @@
         <v>1050</v>
       </c>
       <c r="E16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -16209,7 +16334,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -16218,7 +16343,7 @@
         <v>1070</v>
       </c>
       <c r="E17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -16250,7 +16375,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -16259,7 +16384,7 @@
         <v>1060</v>
       </c>
       <c r="E18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -16291,7 +16416,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C19">
         <v>70</v>
@@ -16300,7 +16425,7 @@
         <v>1070</v>
       </c>
       <c r="E19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -16332,7 +16457,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -16341,7 +16466,7 @@
         <v>1050</v>
       </c>
       <c r="E20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -16373,7 +16498,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C21">
         <v>70</v>
@@ -16382,7 +16507,7 @@
         <v>1070</v>
       </c>
       <c r="E21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -16414,7 +16539,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -16423,7 +16548,7 @@
         <v>1010</v>
       </c>
       <c r="E22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -16455,7 +16580,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -16464,7 +16589,7 @@
         <v>1020</v>
       </c>
       <c r="E23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -16496,7 +16621,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -16505,7 +16630,7 @@
         <v>1020</v>
       </c>
       <c r="E24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -16537,7 +16662,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -16546,7 +16671,7 @@
         <v>1070</v>
       </c>
       <c r="E25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -16578,7 +16703,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C26">
         <v>40</v>
@@ -16587,7 +16712,7 @@
         <v>1040</v>
       </c>
       <c r="E26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -16619,7 +16744,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -16628,7 +16753,7 @@
         <v>1010</v>
       </c>
       <c r="E27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -16660,7 +16785,7 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C28">
         <v>70</v>
@@ -16669,7 +16794,7 @@
         <v>1070</v>
       </c>
       <c r="E28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -16701,7 +16826,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -16710,7 +16835,7 @@
         <v>1020</v>
       </c>
       <c r="E29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -16742,7 +16867,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -16751,7 +16876,7 @@
         <v>1010</v>
       </c>
       <c r="E30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -16783,7 +16908,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31">
         <v>70</v>
@@ -16792,7 +16917,7 @@
         <v>1070</v>
       </c>
       <c r="E31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -16824,7 +16949,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -16833,7 +16958,7 @@
         <v>1050</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -16865,7 +16990,7 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -16874,7 +16999,7 @@
         <v>1010</v>
       </c>
       <c r="E33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -16906,7 +17031,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -16915,7 +17040,7 @@
         <v>1050</v>
       </c>
       <c r="E34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -16947,7 +17072,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C35">
         <v>80</v>
@@ -16956,7 +17081,7 @@
         <v>1080</v>
       </c>
       <c r="E35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -16988,7 +17113,7 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C36">
         <v>80</v>
@@ -16997,7 +17122,7 @@
         <v>1080</v>
       </c>
       <c r="E36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -17029,7 +17154,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C37">
         <v>20</v>
@@ -17038,7 +17163,7 @@
         <v>1020</v>
       </c>
       <c r="E37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -17070,7 +17195,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C38">
         <v>30</v>
@@ -17079,7 +17204,7 @@
         <v>1050</v>
       </c>
       <c r="E38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -17111,7 +17236,7 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -17120,7 +17245,7 @@
         <v>1020</v>
       </c>
       <c r="E39" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -17152,7 +17277,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C40">
         <v>70</v>
@@ -17161,7 +17286,7 @@
         <v>1070</v>
       </c>
       <c r="E40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -17193,7 +17318,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -17202,7 +17327,7 @@
         <v>1020</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -17234,7 +17359,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -17243,7 +17368,7 @@
         <v>1060</v>
       </c>
       <c r="E42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -17275,7 +17400,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C43">
         <v>50</v>
@@ -17284,7 +17409,7 @@
         <v>1050</v>
       </c>
       <c r="E43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -17316,7 +17441,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -17325,7 +17450,7 @@
         <v>1020</v>
       </c>
       <c r="E44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -17357,7 +17482,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C45">
         <v>50</v>
@@ -17366,7 +17491,7 @@
         <v>1050</v>
       </c>
       <c r="E45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -17398,7 +17523,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -17407,7 +17532,7 @@
         <v>1060</v>
       </c>
       <c r="E46" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -17439,7 +17564,7 @@
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -17448,7 +17573,7 @@
         <v>1010</v>
       </c>
       <c r="E47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -17480,7 +17605,7 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -17489,7 +17614,7 @@
         <v>1020</v>
       </c>
       <c r="E48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -17521,7 +17646,7 @@
         <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C49">
         <v>50</v>
@@ -17530,7 +17655,7 @@
         <v>1050</v>
       </c>
       <c r="E49" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -17562,7 +17687,7 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -17571,7 +17696,7 @@
         <v>1020</v>
       </c>
       <c r="E50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -17603,7 +17728,7 @@
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -17612,7 +17737,7 @@
         <v>1010</v>
       </c>
       <c r="E51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -17644,7 +17769,7 @@
         <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C52">
         <v>40</v>
@@ -17653,7 +17778,7 @@
         <v>1040</v>
       </c>
       <c r="E52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -17685,7 +17810,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C53">
         <v>70</v>
@@ -17694,7 +17819,7 @@
         <v>1070</v>
       </c>
       <c r="E53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -17726,7 +17851,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C54">
         <v>80</v>
@@ -17735,7 +17860,7 @@
         <v>1080</v>
       </c>
       <c r="E54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -17767,7 +17892,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -17776,7 +17901,7 @@
         <v>1010</v>
       </c>
       <c r="E55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -17808,7 +17933,7 @@
         <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C56">
         <v>60</v>
@@ -17817,7 +17942,7 @@
         <v>1060</v>
       </c>
       <c r="E56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -17849,7 +17974,7 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -17858,7 +17983,7 @@
         <v>1020</v>
       </c>
       <c r="E57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -17890,7 +18015,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -17899,7 +18024,7 @@
         <v>1020</v>
       </c>
       <c r="E58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -17931,7 +18056,7 @@
         <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -17940,7 +18065,7 @@
         <v>1020</v>
       </c>
       <c r="E59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -17972,7 +18097,7 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C60">
         <v>20</v>
@@ -17981,7 +18106,7 @@
         <v>1020</v>
       </c>
       <c r="E60" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -18013,7 +18138,7 @@
         <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C61">
         <v>70</v>
@@ -18022,7 +18147,7 @@
         <v>1070</v>
       </c>
       <c r="E61" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -18054,7 +18179,7 @@
         <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C62">
         <v>80</v>
@@ -18063,7 +18188,7 @@
         <v>1080</v>
       </c>
       <c r="E62" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -18095,7 +18220,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C63">
         <v>40</v>
@@ -18104,7 +18229,7 @@
         <v>1040</v>
       </c>
       <c r="E63" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -18141,10 +18266,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE1B23-C977-434A-96CB-42BBB979AB8C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18152,7 +18277,7 @@
     <col min="1" max="16384" width="15" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -18162,134 +18287,104 @@
       <c r="C1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1010</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>672</v>
+      <c r="B2" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1020</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>674</v>
+      <c r="B3" s="5" t="s">
+        <v>673</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1030</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>676</v>
+      <c r="B4" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1040</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>678</v>
+      <c r="B5" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1050</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>680</v>
+      <c r="B6" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1060</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>684</v>
+      <c r="B7" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1070</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>682</v>
+      <c r="B8" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1080</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>686</v>
+      <c r="B9" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1090</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
+      <c r="B10" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18316,24 +18411,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>672</v>
+      <c r="B2" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="C2" s="4">
         <v>7</v>
@@ -18346,8 +18441,8 @@
       <c r="A3" s="4">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>674</v>
+      <c r="B3" s="5" t="s">
+        <v>673</v>
       </c>
       <c r="C3" s="4">
         <v>7</v>
@@ -18360,8 +18455,8 @@
       <c r="A4" s="4">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>676</v>
+      <c r="B4" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
@@ -18374,8 +18469,8 @@
       <c r="A5" s="4">
         <v>40</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>678</v>
+      <c r="B5" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -18388,8 +18483,8 @@
       <c r="A6" s="4">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>680</v>
+      <c r="B6" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="C6" s="4">
         <v>7</v>
@@ -18402,8 +18497,8 @@
       <c r="A7" s="4">
         <v>60</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>684</v>
+      <c r="B7" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="C7" s="4">
         <v>7</v>
@@ -18416,8 +18511,8 @@
       <c r="A8" s="4">
         <v>70</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>682</v>
+      <c r="B8" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -18430,8 +18525,8 @@
       <c r="A9" s="4">
         <v>80</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>686</v>
+      <c r="B9" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
@@ -18444,8 +18539,8 @@
       <c r="A10" s="4">
         <v>90</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>686</v>
+      <c r="B10" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="C10" s="4">
         <v>7</v>
@@ -18473,13 +18568,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -18604,10 +18699,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -18615,7 +18710,7 @@
         <v>1010</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -18623,7 +18718,7 @@
         <v>1020</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -18631,7 +18726,7 @@
         <v>1030</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -18639,7 +18734,7 @@
         <v>1040</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -18647,7 +18742,7 @@
         <v>1050</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -18655,7 +18750,7 @@
         <v>1060</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -18663,7 +18758,7 @@
         <v>1070</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -18671,7 +18766,7 @@
         <v>1080</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -18679,7 +18774,7 @@
         <v>1090</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -18701,13 +18796,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -18831,28 +18926,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>95</v>
@@ -18862,17 +18957,17 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>180</v>
+      <c r="B2" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C2" s="4">
         <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F2" s="4">
         <v>38</v>
@@ -18891,17 +18986,17 @@
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>142</v>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C3" s="4">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F3" s="4">
         <v>12</v>
@@ -18920,17 +19015,17 @@
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>145</v>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C4" s="4">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F4" s="4">
         <v>15</v>
@@ -18949,17 +19044,17 @@
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>148</v>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C5" s="4">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="4">
         <v>12</v>
@@ -18978,17 +19073,17 @@
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>137</v>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="4">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F6" s="4">
         <v>30</v>
@@ -19007,17 +19102,17 @@
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>181</v>
+      <c r="B7" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C7" s="4">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F7" s="4">
         <v>28</v>
@@ -19036,17 +19131,17 @@
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>170</v>
+      <c r="B8" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C8" s="4">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F8" s="4">
         <v>15</v>
@@ -19065,17 +19160,17 @@
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>182</v>
+      <c r="B9" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C9" s="4">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="4">
         <v>12</v>
@@ -19094,17 +19189,17 @@
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>183</v>
+      <c r="B10" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C10" s="4">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F10" s="4">
         <v>14</v>
@@ -19123,17 +19218,17 @@
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>166</v>
+      <c r="B11" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C11" s="4">
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F11" s="4">
         <v>15</v>
@@ -19152,17 +19247,17 @@
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>162</v>
+      <c r="B12" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C12" s="4">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F12" s="4">
         <v>15</v>
@@ -19181,17 +19276,17 @@
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>195</v>
+      <c r="B13" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="4">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F13" s="4">
         <v>12</v>
@@ -19210,17 +19305,17 @@
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>144</v>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="4">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F14" s="4">
         <v>12</v>
@@ -19239,17 +19334,17 @@
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>196</v>
+      <c r="B15" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C15" s="4">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F15" s="4">
         <v>13</v>
@@ -19268,17 +19363,17 @@
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>139</v>
+      <c r="B16" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C16" s="4">
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F16" s="4">
         <v>15</v>
@@ -19297,17 +19392,17 @@
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
+      <c r="B17" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="4">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F17" s="4">
         <v>14</v>
@@ -19326,17 +19421,17 @@
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>154</v>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="4">
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F18" s="4">
         <v>15</v>
@@ -19355,17 +19450,17 @@
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>159</v>
+      <c r="B19" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C19" s="4">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="4">
         <v>28</v>
@@ -19384,17 +19479,17 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>174</v>
+      <c r="B20" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C20" s="4">
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F20" s="4">
         <v>11</v>
@@ -19413,17 +19508,17 @@
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>197</v>
+      <c r="B21" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F21" s="4">
         <v>15</v>
@@ -19442,17 +19537,17 @@
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>198</v>
+      <c r="B22" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="4">
         <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F22" s="4">
         <v>15</v>
@@ -19471,17 +19566,17 @@
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>258</v>
+      <c r="B23" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C23" s="4">
         <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F23" s="4">
         <v>15</v>
@@ -19500,17 +19595,17 @@
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>259</v>
+      <c r="B24" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C24" s="4">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F24" s="4">
         <v>15</v>
@@ -19529,17 +19624,17 @@
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>143</v>
+      <c r="B25" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="4">
         <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="4">
         <v>28</v>
@@ -19558,17 +19653,17 @@
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>168</v>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="4">
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F26" s="4">
         <v>13</v>
@@ -19587,17 +19682,17 @@
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>150</v>
+      <c r="B27" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C27" s="4">
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F27" s="4">
         <v>15</v>
@@ -19616,17 +19711,17 @@
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>267</v>
+      <c r="B28" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="C28" s="4">
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F28" s="4">
         <v>15</v>
@@ -19645,17 +19740,17 @@
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>268</v>
+      <c r="B29" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C29" s="4">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F29" s="4">
         <v>15</v>
@@ -19674,17 +19769,17 @@
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>269</v>
+      <c r="B30" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C30" s="4">
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F30" s="4">
         <v>15</v>
@@ -19703,17 +19798,17 @@
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>270</v>
+      <c r="B31" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C31" s="4">
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F31" s="4">
         <v>12</v>
@@ -19732,17 +19827,17 @@
       <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>271</v>
+      <c r="B32" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F32" s="4">
         <v>15</v>
@@ -19761,17 +19856,17 @@
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>229</v>
+      <c r="B33" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C33" s="4">
         <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F33" s="4">
         <v>15</v>
@@ -19791,16 +19886,16 @@
         <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="4">
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F34" s="4">
         <v>15</v>
@@ -19820,16 +19915,16 @@
         <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4">
         <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F35" s="4">
         <v>27</v>
@@ -19849,16 +19944,16 @@
         <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="4">
         <v>19</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F36" s="4">
         <v>56</v>
@@ -19878,16 +19973,16 @@
         <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4">
         <v>16</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F37" s="4">
         <v>13</v>
@@ -19907,16 +20002,16 @@
         <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="4">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F38" s="4">
         <v>42</v>
@@ -19936,16 +20031,16 @@
         <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4">
         <v>15</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F39" s="4">
         <v>60</v>
@@ -19965,16 +20060,16 @@
         <v>69</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="4">
         <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F40" s="4">
         <v>48</v>
@@ -19994,16 +20089,16 @@
         <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F41" s="4">
         <v>36</v>
@@ -20023,16 +20118,16 @@
         <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4">
         <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -20052,16 +20147,16 @@
         <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" s="4">
         <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -20081,16 +20176,16 @@
         <v>73</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C44" s="4">
         <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -20110,16 +20205,16 @@
         <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C45" s="4">
         <v>18</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -20139,16 +20234,16 @@
         <v>75</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="4">
         <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -20168,16 +20263,16 @@
         <v>76</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="4">
         <v>20</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
@@ -20197,16 +20292,16 @@
         <v>77</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="4">
         <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -20226,16 +20321,16 @@
         <v>78</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="4">
         <v>16</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -20255,16 +20350,16 @@
         <v>79</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="4">
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -20284,16 +20379,16 @@
         <v>80</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" s="4">
         <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -20313,16 +20408,16 @@
         <v>81</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" s="4">
         <v>16</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -20342,16 +20437,16 @@
         <v>82</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C53" s="4">
         <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -20371,16 +20466,16 @@
         <v>83</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" s="4">
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F54" s="4">
         <v>8</v>
@@ -20400,16 +20495,16 @@
         <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F55" s="4">
         <v>12</v>
@@ -20429,16 +20524,16 @@
         <v>85</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="4">
         <v>20</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F56" s="4">
         <v>3</v>
@@ -20458,16 +20553,16 @@
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4">
         <v>16</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F57" s="4">
         <v>1232</v>
@@ -20487,16 +20582,16 @@
         <v>87</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4">
         <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F58" s="4">
         <v>1344</v>
@@ -20516,16 +20611,16 @@
         <v>88</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4">
         <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F59" s="4">
         <v>13</v>
@@ -20545,16 +20640,16 @@
         <v>89</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="4">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F60" s="4">
         <v>42</v>
@@ -20574,16 +20669,16 @@
         <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" s="4">
         <v>11</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F61" s="4">
         <v>11</v>
@@ -20603,16 +20698,16 @@
         <v>91</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="4">
         <v>20</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F62" s="4">
         <v>15</v>
@@ -20632,16 +20727,16 @@
         <v>92</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="4">
         <v>13</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F63" s="4">
         <v>7</v>

--- a/asset/Books-Stock-Data.xlsx
+++ b/asset/Books-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56922EFA-5549-4B3B-94F6-EE84E224A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5239D-F3BF-4F45-8115-BA335002130B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{59B1823B-361B-4F0C-B592-654DDA2BF9FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{59B1823B-361B-4F0C-B592-654DDA2BF9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -13254,7 +13254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFB9F53-B3BC-4809-B6E2-EE34BF5E9673}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K2:K31"/>
     </sheetView>
   </sheetViews>
@@ -18915,8 +18915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21DEADC-7293-4682-856C-67520511186F}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E65536"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18935,13 +18935,13 @@
         <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>112</v>
@@ -18963,14 +18963,14 @@
       <c r="C2" s="4">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="4">
-        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>30</v>
@@ -18992,14 +18992,14 @@
       <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F3" s="4">
-        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -19021,14 +19021,14 @@
       <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F4" s="4">
-        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -19050,14 +19050,14 @@
       <c r="C5" s="4">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F5" s="4">
-        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -19079,14 +19079,14 @@
       <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="4">
-        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -19108,14 +19108,14 @@
       <c r="C7" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" s="4">
-        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -19137,14 +19137,14 @@
       <c r="C8" s="4">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
@@ -19166,14 +19166,14 @@
       <c r="C9" s="4">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F9" s="4">
-        <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
@@ -19195,14 +19195,14 @@
       <c r="C10" s="4">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F10" s="4">
-        <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
@@ -19224,14 +19224,14 @@
       <c r="C11" s="4">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F11" s="4">
-        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
@@ -19253,14 +19253,14 @@
       <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F12" s="4">
-        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -19282,14 +19282,14 @@
       <c r="C13" s="4">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F13" s="4">
-        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
@@ -19311,14 +19311,14 @@
       <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="4">
-        <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>30</v>
@@ -19340,14 +19340,14 @@
       <c r="C15" s="4">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" s="4">
-        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>30</v>
@@ -19369,14 +19369,14 @@
       <c r="C16" s="4">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>30</v>
@@ -19398,14 +19398,14 @@
       <c r="C17" s="4">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="4">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="4">
-        <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>30</v>
@@ -19427,14 +19427,14 @@
       <c r="C18" s="4">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="4">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="4">
-        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>30</v>
@@ -19456,14 +19456,14 @@
       <c r="C19" s="4">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="4">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F19" s="4">
-        <v>28</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>30</v>
@@ -19485,14 +19485,14 @@
       <c r="C20" s="4">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="4">
-        <v>11</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>30</v>
@@ -19514,14 +19514,14 @@
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F21" s="4">
-        <v>15</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>30</v>
@@ -19543,14 +19543,14 @@
       <c r="C22" s="4">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="4">
-        <v>15</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
@@ -19572,14 +19572,14 @@
       <c r="C23" s="4">
         <v>11</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="4">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F23" s="4">
-        <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>30</v>
@@ -19601,14 +19601,14 @@
       <c r="C24" s="4">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="4">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F24" s="4">
-        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>30</v>
@@ -19630,14 +19630,14 @@
       <c r="C25" s="4">
         <v>14</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="4">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F25" s="4">
-        <v>28</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>30</v>
@@ -19659,14 +19659,14 @@
       <c r="C26" s="4">
         <v>19</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="4">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F26" s="4">
-        <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>30</v>
@@ -19688,14 +19688,14 @@
       <c r="C27" s="4">
         <v>11</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="4">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F27" s="4">
-        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>30</v>
@@ -19717,14 +19717,14 @@
       <c r="C28" s="4">
         <v>17</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="4">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" s="4">
-        <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>30</v>
@@ -19746,14 +19746,14 @@
       <c r="C29" s="4">
         <v>11</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="4">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F29" s="4">
-        <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>30</v>
@@ -19775,14 +19775,14 @@
       <c r="C30" s="4">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="4">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" s="4">
-        <v>15</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>30</v>
@@ -19804,14 +19804,14 @@
       <c r="C31" s="4">
         <v>13</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="4">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F31" s="4">
-        <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>30</v>
@@ -19833,14 +19833,14 @@
       <c r="C32" s="4">
         <v>18</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="4">
+        <v>15</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F32" s="4">
-        <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>30</v>
@@ -19862,14 +19862,14 @@
       <c r="C33" s="4">
         <v>17</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="4">
+        <v>15</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F33" s="4">
-        <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>30</v>
@@ -19891,14 +19891,14 @@
       <c r="C34" s="4">
         <v>19</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="4">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F34" s="4">
-        <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>30</v>
@@ -19920,14 +19920,14 @@
       <c r="C35" s="4">
         <v>17</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="4">
+        <v>27</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F35" s="4">
-        <v>27</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>30</v>
@@ -19949,14 +19949,14 @@
       <c r="C36" s="4">
         <v>19</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="4">
+        <v>56</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F36" s="4">
-        <v>56</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>30</v>
@@ -19978,14 +19978,14 @@
       <c r="C37" s="4">
         <v>16</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="4">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F37" s="4">
-        <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>30</v>
@@ -20007,14 +20007,14 @@
       <c r="C38" s="4">
         <v>20</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="4">
+        <v>42</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F38" s="4">
-        <v>42</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>30</v>
@@ -20036,14 +20036,14 @@
       <c r="C39" s="4">
         <v>15</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="4">
+        <v>60</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F39" s="4">
-        <v>60</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>30</v>
@@ -20065,14 +20065,14 @@
       <c r="C40" s="4">
         <v>12</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="4">
+        <v>48</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F40" s="4">
-        <v>48</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>30</v>
@@ -20094,14 +20094,14 @@
       <c r="C41" s="4">
         <v>12</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="4">
+        <v>36</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F41" s="4">
-        <v>36</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>30</v>
@@ -20123,14 +20123,14 @@
       <c r="C42" s="4">
         <v>20</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>30</v>
@@ -20152,14 +20152,14 @@
       <c r="C43" s="4">
         <v>17</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>30</v>
@@ -20181,14 +20181,14 @@
       <c r="C44" s="4">
         <v>20</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>30</v>
@@ -20210,14 +20210,14 @@
       <c r="C45" s="4">
         <v>18</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>30</v>
@@ -20239,14 +20239,14 @@
       <c r="C46" s="4">
         <v>11</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F46" s="4">
-        <v>3</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>30</v>
@@ -20268,14 +20268,14 @@
       <c r="C47" s="4">
         <v>20</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>30</v>
@@ -20297,14 +20297,14 @@
       <c r="C48" s="4">
         <v>18</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>30</v>
@@ -20326,14 +20326,14 @@
       <c r="C49" s="4">
         <v>16</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>30</v>
@@ -20355,14 +20355,14 @@
       <c r="C50" s="4">
         <v>13</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>30</v>
@@ -20384,14 +20384,14 @@
       <c r="C51" s="4">
         <v>14</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>30</v>
@@ -20413,14 +20413,14 @@
       <c r="C52" s="4">
         <v>16</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>30</v>
@@ -20442,14 +20442,14 @@
       <c r="C53" s="4">
         <v>12</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>30</v>
@@ -20471,14 +20471,14 @@
       <c r="C54" s="4">
         <v>14</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="4">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F54" s="4">
-        <v>8</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>30</v>
@@ -20500,14 +20500,14 @@
       <c r="C55" s="4">
         <v>18</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="4">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F55" s="4">
-        <v>12</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>30</v>
@@ -20529,14 +20529,14 @@
       <c r="C56" s="4">
         <v>20</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F56" s="4">
-        <v>3</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>30</v>
@@ -20558,14 +20558,14 @@
       <c r="C57" s="4">
         <v>16</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="4">
+        <v>1232</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1232</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>30</v>
@@ -20587,14 +20587,14 @@
       <c r="C58" s="4">
         <v>12</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="4">
+        <v>1344</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1344</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>30</v>
@@ -20616,14 +20616,14 @@
       <c r="C59" s="4">
         <v>20</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="4">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F59" s="4">
-        <v>13</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>30</v>
@@ -20645,14 +20645,14 @@
       <c r="C60" s="4">
         <v>14</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="4">
+        <v>42</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F60" s="4">
-        <v>42</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>30</v>
@@ -20674,14 +20674,14 @@
       <c r="C61" s="4">
         <v>11</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="4">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F61" s="4">
-        <v>11</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>30</v>
@@ -20703,14 +20703,14 @@
       <c r="C62" s="4">
         <v>20</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="4">
+        <v>15</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F62" s="4">
-        <v>15</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>30</v>
@@ -20732,14 +20732,14 @@
       <c r="C63" s="4">
         <v>13</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="4">
+        <v>7</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F63" s="4">
-        <v>7</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>30</v>

--- a/asset/Books-Stock-Data.xlsx
+++ b/asset/Books-Stock-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5239D-F3BF-4F45-8115-BA335002130B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE8CD4-9D71-49D3-9E76-865DA9AC6C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{59B1823B-361B-4F0C-B592-654DDA2BF9FA}"/>
   </bookViews>
@@ -18916,7 +18916,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18935,13 +18935,13 @@
         <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>112</v>
@@ -18963,14 +18963,14 @@
       <c r="C2" s="4">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4">
         <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>30</v>
@@ -18992,14 +18992,14 @@
       <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="4">
         <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -19021,14 +19021,14 @@
       <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="4">
         <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -19050,14 +19050,14 @@
       <c r="C5" s="4">
         <v>19</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4">
         <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -19079,14 +19079,14 @@
       <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
-        <v>30</v>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="4" t="s">
         <v>116</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -19108,14 +19108,14 @@
       <c r="C7" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4">
         <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -19137,14 +19137,14 @@
       <c r="C8" s="4">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="4">
         <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
@@ -19166,14 +19166,14 @@
       <c r="C9" s="4">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="4">
         <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
@@ -19195,14 +19195,14 @@
       <c r="C10" s="4">
         <v>15</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="4">
         <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
@@ -19224,14 +19224,14 @@
       <c r="C11" s="4">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="4">
         <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
@@ -19253,14 +19253,14 @@
       <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="4">
         <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -19282,14 +19282,14 @@
       <c r="C13" s="4">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="4">
         <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
@@ -19311,14 +19311,14 @@
       <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="4">
         <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>30</v>
@@ -19340,14 +19340,14 @@
       <c r="C15" s="4">
         <v>19</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4">
         <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>30</v>
@@ -19369,14 +19369,14 @@
       <c r="C16" s="4">
         <v>12</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="4">
         <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>30</v>
@@ -19398,14 +19398,14 @@
       <c r="C17" s="4">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="4">
         <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>30</v>
@@ -19427,14 +19427,14 @@
       <c r="C18" s="4">
         <v>11</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="4">
         <v>15</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>30</v>
@@ -19456,14 +19456,14 @@
       <c r="C19" s="4">
         <v>13</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="4">
         <v>28</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>30</v>
@@ -19485,14 +19485,14 @@
       <c r="C20" s="4">
         <v>17</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="4">
         <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>30</v>
@@ -19514,14 +19514,14 @@
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="4">
         <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>30</v>
@@ -19543,14 +19543,14 @@
       <c r="C22" s="4">
         <v>14</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="4">
         <v>15</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
@@ -19572,14 +19572,14 @@
       <c r="C23" s="4">
         <v>11</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="4">
         <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>30</v>
@@ -19601,14 +19601,14 @@
       <c r="C24" s="4">
         <v>19</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="4">
         <v>15</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>30</v>
@@ -19630,14 +19630,14 @@
       <c r="C25" s="4">
         <v>14</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4">
         <v>28</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>30</v>
@@ -19659,14 +19659,14 @@
       <c r="C26" s="4">
         <v>19</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="4">
         <v>13</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>30</v>
@@ -19688,14 +19688,14 @@
       <c r="C27" s="4">
         <v>11</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="4">
         <v>15</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>30</v>
@@ -19717,14 +19717,14 @@
       <c r="C28" s="4">
         <v>17</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="4">
         <v>15</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>30</v>
@@ -19746,14 +19746,14 @@
       <c r="C29" s="4">
         <v>11</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4">
         <v>15</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>30</v>
@@ -19775,14 +19775,14 @@
       <c r="C30" s="4">
         <v>13</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4">
         <v>15</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>30</v>
@@ -19804,14 +19804,14 @@
       <c r="C31" s="4">
         <v>13</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="4">
         <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>30</v>
@@ -19833,14 +19833,14 @@
       <c r="C32" s="4">
         <v>18</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="4">
         <v>15</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>30</v>
@@ -19862,14 +19862,14 @@
       <c r="C33" s="4">
         <v>17</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4">
         <v>15</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>30</v>
@@ -19891,14 +19891,14 @@
       <c r="C34" s="4">
         <v>19</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="4">
         <v>15</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>30</v>
@@ -19920,14 +19920,14 @@
       <c r="C35" s="4">
         <v>17</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="4">
         <v>27</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>30</v>
@@ -19949,14 +19949,14 @@
       <c r="C36" s="4">
         <v>19</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="4">
         <v>56</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>30</v>
@@ -19978,14 +19978,14 @@
       <c r="C37" s="4">
         <v>16</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="4">
         <v>13</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>30</v>
@@ -20007,14 +20007,14 @@
       <c r="C38" s="4">
         <v>20</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="4">
         <v>42</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>30</v>
@@ -20036,14 +20036,14 @@
       <c r="C39" s="4">
         <v>15</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="4">
         <v>60</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>30</v>
@@ -20065,14 +20065,14 @@
       <c r="C40" s="4">
         <v>12</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="4">
         <v>48</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>30</v>
@@ -20094,14 +20094,14 @@
       <c r="C41" s="4">
         <v>12</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="4">
         <v>36</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>30</v>
@@ -20123,14 +20123,14 @@
       <c r="C42" s="4">
         <v>20</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4">
         <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>30</v>
@@ -20152,14 +20152,14 @@
       <c r="C43" s="4">
         <v>17</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4">
         <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>30</v>
@@ -20181,14 +20181,14 @@
       <c r="C44" s="4">
         <v>20</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="4">
         <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>30</v>
@@ -20210,14 +20210,14 @@
       <c r="C45" s="4">
         <v>18</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="4">
         <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>30</v>
@@ -20239,14 +20239,14 @@
       <c r="C46" s="4">
         <v>11</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="4">
         <v>3</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>30</v>
@@ -20268,14 +20268,14 @@
       <c r="C47" s="4">
         <v>20</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="4">
         <v>2</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>30</v>
@@ -20297,14 +20297,14 @@
       <c r="C48" s="4">
         <v>18</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="4">
         <v>0</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>30</v>
@@ -20326,14 +20326,14 @@
       <c r="C49" s="4">
         <v>16</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="4">
         <v>0</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>30</v>
@@ -20355,14 +20355,14 @@
       <c r="C50" s="4">
         <v>13</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="4">
         <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>30</v>
@@ -20384,14 +20384,14 @@
       <c r="C51" s="4">
         <v>14</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="4">
         <v>0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>30</v>
@@ -20413,14 +20413,14 @@
       <c r="C52" s="4">
         <v>16</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="4">
         <v>0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>30</v>
@@ -20442,14 +20442,14 @@
       <c r="C53" s="4">
         <v>12</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="4">
         <v>0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>30</v>
@@ -20471,14 +20471,14 @@
       <c r="C54" s="4">
         <v>14</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="4">
         <v>8</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>30</v>
@@ -20500,14 +20500,14 @@
       <c r="C55" s="4">
         <v>18</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="4">
         <v>12</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>30</v>
@@ -20529,14 +20529,14 @@
       <c r="C56" s="4">
         <v>20</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="4">
         <v>3</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>30</v>
@@ -20558,14 +20558,14 @@
       <c r="C57" s="4">
         <v>16</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4">
         <v>1232</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>30</v>
@@ -20587,14 +20587,14 @@
       <c r="C58" s="4">
         <v>12</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="4">
         <v>1344</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>30</v>
@@ -20616,14 +20616,14 @@
       <c r="C59" s="4">
         <v>20</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="4">
         <v>13</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>30</v>
@@ -20645,14 +20645,14 @@
       <c r="C60" s="4">
         <v>14</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="4">
         <v>42</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>30</v>
@@ -20674,14 +20674,14 @@
       <c r="C61" s="4">
         <v>11</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="4">
         <v>11</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>30</v>
@@ -20703,14 +20703,14 @@
       <c r="C62" s="4">
         <v>20</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="4">
         <v>15</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>30</v>
@@ -20732,14 +20732,14 @@
       <c r="C63" s="4">
         <v>13</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="4">
         <v>7</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>30</v>
